--- a/part2_result_commitment.xlsx
+++ b/part2_result_commitment.xlsx
@@ -473,8 +473,8 @@
       <c r="F2">
         <v>NaN</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="str">
+        <v>2,401.521</v>
       </c>
       <c r="H2">
         <v>NaN</v>
@@ -499,8 +499,8 @@
       <c r="F3">
         <v>-51267.3</v>
       </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" t="str">
+        <v>32,525.75</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -525,8 +525,8 @@
       <c r="F4">
         <v>341154.2502308149</v>
       </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="G4" t="str">
+        <v>652,351.045</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -551,8 +551,8 @@
       <c r="F5">
         <v>-204603</v>
       </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="G5" t="str">
+        <v>236,698.529</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -577,8 +577,8 @@
       <c r="F6">
         <v>-51231.25</v>
       </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="G6" t="str">
+        <v>8,507.793</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -603,8 +603,8 @@
       <c r="F7">
         <v>113589.02257989612</v>
       </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="G7" t="str">
+        <v>455,515.28</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -629,8 +629,8 @@
       <c r="F8">
         <v>NaN</v>
       </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="G8" t="str">
+        <v>18,263.77</v>
       </c>
       <c r="H8">
         <v>NaN</v>
@@ -655,8 +655,8 @@
       <c r="F9">
         <v>77720.71761564398</v>
       </c>
-      <c r="G9">
-        <v>0</v>
+      <c r="G9" t="str">
+        <v>341,013.559</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -681,8 +681,8 @@
       <c r="F10">
         <v>NaN</v>
       </c>
-      <c r="G10">
-        <v>0</v>
+      <c r="G10" t="str">
+        <v>7,666.723</v>
       </c>
       <c r="H10">
         <v>NaN</v>
@@ -707,8 +707,8 @@
       <c r="F11">
         <v>-51301.8</v>
       </c>
-      <c r="G11">
-        <v>0</v>
+      <c r="G11" t="str">
+        <v>15,460.244</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -733,8 +733,8 @@
       <c r="F12">
         <v>-205207.2</v>
       </c>
-      <c r="G12">
-        <v>0</v>
+      <c r="G12" t="str">
+        <v>368,371.381</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -759,8 +759,8 @@
       <c r="F13">
         <v>NaN</v>
       </c>
-      <c r="G13">
-        <v>0</v>
+      <c r="G13" t="str">
+        <v>5,209.241</v>
       </c>
       <c r="H13">
         <v>NaN</v>
@@ -785,8 +785,8 @@
       <c r="F14">
         <v>NaN</v>
       </c>
-      <c r="G14">
-        <v>0</v>
+      <c r="G14" t="str">
+        <v>325,744.741</v>
       </c>
       <c r="H14">
         <v>NaN</v>
@@ -811,8 +811,8 @@
       <c r="F15">
         <v>-14909.339295359357</v>
       </c>
-      <c r="G15">
-        <v>0</v>
+      <c r="G15" t="str">
+        <v>483,298.386</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -837,8 +837,8 @@
       <c r="F16">
         <v>-51267.3</v>
       </c>
-      <c r="G16">
-        <v>0</v>
+      <c r="G16" t="str">
+        <v>72,357.215</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -863,8 +863,8 @@
       <c r="F17">
         <v>-51231.25</v>
       </c>
-      <c r="G17">
-        <v>0</v>
+      <c r="G17" t="str">
+        <v>218,639.979</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -889,8 +889,8 @@
       <c r="F18">
         <v>-51231.25</v>
       </c>
-      <c r="G18">
-        <v>0</v>
+      <c r="G18" t="str">
+        <v>66,666.53</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -915,8 +915,8 @@
       <c r="F19">
         <v>NaN</v>
       </c>
-      <c r="G19">
-        <v>0</v>
+      <c r="G19" t="str">
+        <v>18,414.884</v>
       </c>
       <c r="H19">
         <v>NaN</v>
@@ -941,8 +941,8 @@
       <c r="F20">
         <v>NaN</v>
       </c>
-      <c r="G20">
-        <v>0</v>
+      <c r="G20" t="str">
+        <v>53,137.226</v>
       </c>
       <c r="H20">
         <v>NaN</v>
@@ -967,8 +967,8 @@
       <c r="F21">
         <v>-94337.7305058098</v>
       </c>
-      <c r="G21">
-        <v>0</v>
+      <c r="G21" t="str">
+        <v>90,606.133</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -993,8 +993,8 @@
       <c r="F22">
         <v>NaN</v>
       </c>
-      <c r="G22">
-        <v>0</v>
+      <c r="G22" t="str">
+        <v>11,058.545</v>
       </c>
       <c r="H22">
         <v>NaN</v>
@@ -1019,8 +1019,8 @@
       <c r="F23">
         <v>-51231.25</v>
       </c>
-      <c r="G23">
-        <v>0</v>
+      <c r="G23" t="str">
+        <v>432,424.447</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1045,8 +1045,8 @@
       <c r="F24">
         <v>-23950.314</v>
       </c>
-      <c r="G24">
-        <v>0</v>
+      <c r="G24" t="str">
+        <v>48,774.907</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1071,8 +1071,8 @@
       <c r="F25">
         <v>NaN</v>
       </c>
-      <c r="G25">
-        <v>0</v>
+      <c r="G25" t="str">
+        <v>12,436.902</v>
       </c>
       <c r="H25">
         <v>NaN</v>
@@ -1097,8 +1097,8 @@
       <c r="F26">
         <v>NaN</v>
       </c>
-      <c r="G26">
-        <v>0</v>
+      <c r="G26" t="str">
+        <v>4,762.426</v>
       </c>
       <c r="H26">
         <v>NaN</v>
@@ -1123,8 +1123,8 @@
       <c r="F27">
         <v>NaN</v>
       </c>
-      <c r="G27">
-        <v>0</v>
+      <c r="G27" t="str">
+        <v>81,642.901</v>
       </c>
       <c r="H27">
         <v>NaN</v>
@@ -1149,8 +1149,8 @@
       <c r="F28">
         <v>NaN</v>
       </c>
-      <c r="G28">
-        <v>0</v>
+      <c r="G28" t="str">
+        <v>5,149.751</v>
       </c>
       <c r="H28">
         <v>NaN</v>
@@ -1175,8 +1175,8 @@
       <c r="F29">
         <v>-205069.2</v>
       </c>
-      <c r="G29">
-        <v>0</v>
+      <c r="G29" t="str">
+        <v>206,699.806</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1201,8 +1201,8 @@
       <c r="F30">
         <v>-51301.8</v>
       </c>
-      <c r="G30">
-        <v>0</v>
+      <c r="G30" t="str">
+        <v>8,647.473</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1227,8 +1227,8 @@
       <c r="F31">
         <v>NaN</v>
       </c>
-      <c r="G31">
-        <v>0</v>
+      <c r="G31" t="str">
+        <v>4,940.415</v>
       </c>
       <c r="H31">
         <v>NaN</v>
@@ -1253,8 +1253,8 @@
       <c r="F32">
         <v>NaN</v>
       </c>
-      <c r="G32">
-        <v>0</v>
+      <c r="G32" t="str">
+        <v>3,174.467</v>
       </c>
       <c r="H32">
         <v>NaN</v>
@@ -1279,8 +1279,8 @@
       <c r="F33">
         <v>-205069.2</v>
       </c>
-      <c r="G33">
-        <v>0</v>
+      <c r="G33" t="str">
+        <v>182,127.919</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -1305,8 +1305,8 @@
       <c r="F34">
         <v>-205069.2</v>
       </c>
-      <c r="G34">
-        <v>0</v>
+      <c r="G34" t="str">
+        <v>83,787.868</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -1331,8 +1331,8 @@
       <c r="F35">
         <v>NaN</v>
       </c>
-      <c r="G35">
-        <v>0</v>
+      <c r="G35" t="str">
+        <v>343,742.133</v>
       </c>
       <c r="H35">
         <v>NaN</v>
@@ -1357,8 +1357,8 @@
       <c r="F36">
         <v>-51301.8</v>
       </c>
-      <c r="G36">
-        <v>0</v>
+      <c r="G36" t="str">
+        <v>3,297.747</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1383,8 +1383,8 @@
       <c r="F37">
         <v>NaN</v>
       </c>
-      <c r="G37">
-        <v>0</v>
+      <c r="G37" t="str">
+        <v>4,953.957</v>
       </c>
       <c r="H37">
         <v>NaN</v>
@@ -1409,8 +1409,8 @@
       <c r="F38">
         <v>NaN</v>
       </c>
-      <c r="G38">
-        <v>0</v>
+      <c r="G38" t="str">
+        <v>148,983.802</v>
       </c>
       <c r="H38">
         <v>NaN</v>
@@ -1435,8 +1435,8 @@
       <c r="F39">
         <v>-51301.8</v>
       </c>
-      <c r="G39">
-        <v>0</v>
+      <c r="G39" t="str">
+        <v>33,543.695</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -1461,8 +1461,8 @@
       <c r="F40">
         <v>NaN</v>
       </c>
-      <c r="G40">
-        <v>0</v>
+      <c r="G40" t="str">
+        <v>3,217.121</v>
       </c>
       <c r="H40">
         <v>NaN</v>
@@ -1487,8 +1487,8 @@
       <c r="F41">
         <v>-51192.9</v>
       </c>
-      <c r="G41">
-        <v>0</v>
+      <c r="G41" t="str">
+        <v>2,655.183</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1513,7 +1513,7 @@
       <c r="F42">
         <v>NaN</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="str">
         <v>0</v>
       </c>
       <c r="H42">
@@ -1539,8 +1539,8 @@
       <c r="F43">
         <v>NaN</v>
       </c>
-      <c r="G43">
-        <v>0</v>
+      <c r="G43" t="str">
+        <v>2,800.829</v>
       </c>
       <c r="H43">
         <v>NaN</v>
@@ -1565,8 +1565,8 @@
       <c r="F44">
         <v>NaN</v>
       </c>
-      <c r="G44">
-        <v>0</v>
+      <c r="G44" t="str">
+        <v>5,513.617</v>
       </c>
       <c r="H44">
         <v>NaN</v>
@@ -1591,8 +1591,8 @@
       <c r="F45">
         <v>-51301.8</v>
       </c>
-      <c r="G45">
-        <v>0</v>
+      <c r="G45" t="str">
+        <v>32,516.058</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -1617,8 +1617,8 @@
       <c r="F46">
         <v>-51150.75</v>
       </c>
-      <c r="G46">
-        <v>0</v>
+      <c r="G46" t="str">
+        <v>3,094.673</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -1643,8 +1643,8 @@
       <c r="F47">
         <v>-200000</v>
       </c>
-      <c r="G47">
-        <v>0</v>
+      <c r="G47" t="str">
+        <v>425,385.675</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -1669,8 +1669,8 @@
       <c r="F48">
         <v>-50000</v>
       </c>
-      <c r="G48">
-        <v>0</v>
+      <c r="G48" t="str">
+        <v>28,307.404</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -1695,8 +1695,8 @@
       <c r="F49">
         <v>-51267.3</v>
       </c>
-      <c r="G49">
-        <v>0</v>
+      <c r="G49" t="str">
+        <v>313,695.787</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -1721,7 +1721,7 @@
       <c r="F50">
         <v>55000</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="str">
         <v>0</v>
       </c>
       <c r="H50">
@@ -1747,8 +1747,8 @@
       <c r="F51">
         <v>NaN</v>
       </c>
-      <c r="G51">
-        <v>0</v>
+      <c r="G51" t="str">
+        <v>17,752.731</v>
       </c>
       <c r="H51">
         <v>NaN</v>
@@ -1773,8 +1773,8 @@
       <c r="F52">
         <v>-54534.24859210122</v>
       </c>
-      <c r="G52">
-        <v>0</v>
+      <c r="G52" t="str">
+        <v>29,073.352</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -1799,8 +1799,8 @@
       <c r="F53">
         <v>-51301.8</v>
       </c>
-      <c r="G53">
-        <v>0</v>
+      <c r="G53" t="str">
+        <v>13,501.837</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -1825,8 +1825,8 @@
       <c r="F54">
         <v>-51267.3</v>
       </c>
-      <c r="G54">
-        <v>0</v>
+      <c r="G54" t="str">
+        <v>5,755.098</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -1851,8 +1851,8 @@
       <c r="F55">
         <v>-51301.8</v>
       </c>
-      <c r="G55">
-        <v>0</v>
+      <c r="G55" t="str">
+        <v>6,696.156</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -1877,8 +1877,8 @@
       <c r="F56">
         <v>-51301.8</v>
       </c>
-      <c r="G56">
-        <v>0</v>
+      <c r="G56" t="str">
+        <v>11,839.347</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -1903,8 +1903,8 @@
       <c r="F57">
         <v>-231281.5973097227</v>
       </c>
-      <c r="G57">
-        <v>0</v>
+      <c r="G57" t="str">
+        <v>273,563.655</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -1929,8 +1929,8 @@
       <c r="F58">
         <v>-50993.725</v>
       </c>
-      <c r="G58">
-        <v>0</v>
+      <c r="G58" t="str">
+        <v>25,959.513</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -1955,8 +1955,8 @@
       <c r="F59">
         <v>-51192.9</v>
       </c>
-      <c r="G59">
-        <v>0</v>
+      <c r="G59" t="str">
+        <v>6,504.476</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -1981,8 +1981,8 @@
       <c r="F60">
         <v>-51267.3</v>
       </c>
-      <c r="G60">
-        <v>0</v>
+      <c r="G60" t="str">
+        <v>5,178.696</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -2007,8 +2007,8 @@
       <c r="F61">
         <v>-53652.487236755645</v>
       </c>
-      <c r="G61">
-        <v>0</v>
+      <c r="G61" t="str">
+        <v>84,295.693</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -2033,8 +2033,8 @@
       <c r="F62">
         <v>-90954.99980010459</v>
       </c>
-      <c r="G62">
-        <v>0</v>
+      <c r="G62" t="str">
+        <v>137,157.956</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -2059,8 +2059,8 @@
       <c r="F63">
         <v>-51267.3</v>
       </c>
-      <c r="G63">
-        <v>0</v>
+      <c r="G63" t="str">
+        <v>6,788.886</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -2085,8 +2085,8 @@
       <c r="F64">
         <v>-51301.8</v>
       </c>
-      <c r="G64">
-        <v>0</v>
+      <c r="G64" t="str">
+        <v>5,012.715</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -2111,8 +2111,8 @@
       <c r="F65">
         <v>-216642.46919917865</v>
       </c>
-      <c r="G65">
-        <v>0</v>
+      <c r="G65" t="str">
+        <v>464,188.725</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -2137,8 +2137,8 @@
       <c r="F66">
         <v>172179.78103679203</v>
       </c>
-      <c r="G66">
-        <v>0</v>
+      <c r="G66" t="str">
+        <v>361,045.987</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -2163,8 +2163,8 @@
       <c r="F67">
         <v>-51267.3</v>
       </c>
-      <c r="G67">
-        <v>0</v>
+      <c r="G67" t="str">
+        <v>14,950.361</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -2189,8 +2189,8 @@
       <c r="F68">
         <v>-214348.8834210665</v>
       </c>
-      <c r="G68">
-        <v>0</v>
+      <c r="G68" t="str">
+        <v>123,924.823</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -2215,8 +2215,8 @@
       <c r="F69">
         <v>-60039.594272816</v>
       </c>
-      <c r="G69">
-        <v>0</v>
+      <c r="G69" t="str">
+        <v>63,919.876</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -2241,8 +2241,8 @@
       <c r="F70">
         <v>-215657.49624735035</v>
       </c>
-      <c r="G70">
-        <v>0</v>
+      <c r="G70" t="str">
+        <v>327,063.662</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -2267,8 +2267,8 @@
       <c r="F71">
         <v>-51267.3</v>
       </c>
-      <c r="G71">
-        <v>0</v>
+      <c r="G71" t="str">
+        <v>12,113.402</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -2293,8 +2293,8 @@
       <c r="F72">
         <v>-51267.3</v>
       </c>
-      <c r="G72">
-        <v>0</v>
+      <c r="G72" t="str">
+        <v>29,321.888</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2319,8 +2319,8 @@
       <c r="F73">
         <v>-204925</v>
       </c>
-      <c r="G73">
-        <v>0</v>
+      <c r="G73" t="str">
+        <v>640,437.743</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2345,8 +2345,8 @@
       <c r="F74">
         <v>NaN</v>
       </c>
-      <c r="G74">
-        <v>0</v>
+      <c r="G74" t="str">
+        <v>199,021.49</v>
       </c>
       <c r="H74">
         <v>NaN</v>
@@ -2371,8 +2371,8 @@
       <c r="F75">
         <v>-205069.2</v>
       </c>
-      <c r="G75">
-        <v>0</v>
+      <c r="G75" t="str">
+        <v>311,492.536</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -2397,8 +2397,8 @@
       <c r="F76">
         <v>-205069.2</v>
       </c>
-      <c r="G76">
-        <v>0</v>
+      <c r="G76" t="str">
+        <v>229,539.813</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -2423,8 +2423,8 @@
       <c r="F77">
         <v>-205207.2</v>
       </c>
-      <c r="G77">
-        <v>0</v>
+      <c r="G77" t="str">
+        <v>251,629.219</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -2449,8 +2449,8 @@
       <c r="F78">
         <v>NaN</v>
       </c>
-      <c r="G78">
-        <v>0</v>
+      <c r="G78" t="str">
+        <v>8,887.108</v>
       </c>
       <c r="H78">
         <v>NaN</v>
@@ -2475,8 +2475,8 @@
       <c r="F79">
         <v>-51231.25</v>
       </c>
-      <c r="G79">
-        <v>0</v>
+      <c r="G79" t="str">
+        <v>15,032.189</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -2501,8 +2501,8 @@
       <c r="F80">
         <v>-51231.25</v>
       </c>
-      <c r="G80">
-        <v>0</v>
+      <c r="G80" t="str">
+        <v>17,671.671</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -2527,8 +2527,8 @@
       <c r="F81">
         <v>NaN</v>
       </c>
-      <c r="G81">
-        <v>0</v>
+      <c r="G81" t="str">
+        <v>17,492.331</v>
       </c>
       <c r="H81">
         <v>NaN</v>
@@ -2553,8 +2553,8 @@
       <c r="F82">
         <v>-51267.3</v>
       </c>
-      <c r="G82">
-        <v>0</v>
+      <c r="G82" t="str">
+        <v>236,626.595</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -2579,8 +2579,8 @@
       <c r="F83">
         <v>NaN</v>
       </c>
-      <c r="G83">
-        <v>0</v>
+      <c r="G83" t="str">
+        <v>15,298.111</v>
       </c>
       <c r="H83">
         <v>NaN</v>
@@ -2605,8 +2605,8 @@
       <c r="F84">
         <v>131013.84</v>
       </c>
-      <c r="G84">
-        <v>0</v>
+      <c r="G84" t="str">
+        <v>144,746.061</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -2631,8 +2631,8 @@
       <c r="F85">
         <v>NaN</v>
       </c>
-      <c r="G85">
-        <v>0</v>
+      <c r="G85" t="str">
+        <v>11,704.62</v>
       </c>
       <c r="H85">
         <v>NaN</v>
@@ -2657,8 +2657,8 @@
       <c r="F86">
         <v>-51267.3</v>
       </c>
-      <c r="G86">
-        <v>0</v>
+      <c r="G86" t="str">
+        <v>52,933.93</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -2683,8 +2683,8 @@
       <c r="F87">
         <v>NaN</v>
       </c>
-      <c r="G87">
-        <v>0</v>
+      <c r="G87" t="str">
+        <v>10,543.92</v>
       </c>
       <c r="H87">
         <v>NaN</v>
@@ -2709,8 +2709,8 @@
       <c r="F88">
         <v>-51301.8</v>
       </c>
-      <c r="G88">
-        <v>0</v>
+      <c r="G88" t="str">
+        <v>56,667.19</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -2735,8 +2735,8 @@
       <c r="F89">
         <v>-51267.3</v>
       </c>
-      <c r="G89">
-        <v>0</v>
+      <c r="G89" t="str">
+        <v>47,875.879</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -2761,8 +2761,8 @@
       <c r="F90">
         <v>143717.44094128182</v>
       </c>
-      <c r="G90">
-        <v>0</v>
+      <c r="G90" t="str">
+        <v>325,278.367</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -2787,8 +2787,8 @@
       <c r="F91">
         <v>NaN</v>
       </c>
-      <c r="G91">
-        <v>0</v>
+      <c r="G91" t="str">
+        <v>101,533.946</v>
       </c>
       <c r="H91">
         <v>NaN</v>
@@ -2813,8 +2813,8 @@
       <c r="F92">
         <v>-205069.2</v>
       </c>
-      <c r="G92">
-        <v>0</v>
+      <c r="G92" t="str">
+        <v>81,492.93</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -2839,8 +2839,8 @@
       <c r="F93">
         <v>NaN</v>
       </c>
-      <c r="G93">
-        <v>0</v>
+      <c r="G93" t="str">
+        <v>6,076.791</v>
       </c>
       <c r="H93">
         <v>NaN</v>
@@ -2865,8 +2865,8 @@
       <c r="F94">
         <v>NaN</v>
       </c>
-      <c r="G94">
-        <v>0</v>
+      <c r="G94" t="str">
+        <v>4,758.795</v>
       </c>
       <c r="H94">
         <v>NaN</v>
@@ -2891,8 +2891,8 @@
       <c r="F95">
         <v>-205069.2</v>
       </c>
-      <c r="G95">
-        <v>0</v>
+      <c r="G95" t="str">
+        <v>212,374.103</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -2917,8 +2917,8 @@
       <c r="F96">
         <v>NaN</v>
       </c>
-      <c r="G96">
-        <v>0</v>
+      <c r="G96" t="str">
+        <v>5,129.12</v>
       </c>
       <c r="H96">
         <v>NaN</v>
@@ -2943,8 +2943,8 @@
       <c r="F97">
         <v>-51301.8</v>
       </c>
-      <c r="G97">
-        <v>0</v>
+      <c r="G97" t="str">
+        <v>24,818.993</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -2969,8 +2969,8 @@
       <c r="F98">
         <v>-51301.8</v>
       </c>
-      <c r="G98">
-        <v>0</v>
+      <c r="G98" t="str">
+        <v>14,688.194</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -2995,8 +2995,8 @@
       <c r="F99">
         <v>-205069.2</v>
       </c>
-      <c r="G99">
-        <v>0</v>
+      <c r="G99" t="str">
+        <v>189,179.641</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -3021,8 +3021,8 @@
       <c r="F100">
         <v>-204218</v>
       </c>
-      <c r="G100">
-        <v>0</v>
+      <c r="G100" t="str">
+        <v>348,102.187</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3047,8 +3047,8 @@
       <c r="F101">
         <v>NaN</v>
       </c>
-      <c r="G101">
-        <v>0</v>
+      <c r="G101" t="str">
+        <v>28,973.151</v>
       </c>
       <c r="H101">
         <v>NaN</v>
@@ -3073,8 +3073,8 @@
       <c r="F102">
         <v>NaN</v>
       </c>
-      <c r="G102">
-        <v>0</v>
+      <c r="G102" t="str">
+        <v>194,425.187</v>
       </c>
       <c r="H102">
         <v>NaN</v>
@@ -3099,8 +3099,8 @@
       <c r="F103">
         <v>-51267.3</v>
       </c>
-      <c r="G103">
-        <v>0</v>
+      <c r="G103" t="str">
+        <v>17,855.556</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3125,8 +3125,8 @@
       <c r="F104">
         <v>-51267.3</v>
       </c>
-      <c r="G104">
-        <v>0</v>
+      <c r="G104" t="str">
+        <v>14,904.25</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3151,8 +3151,8 @@
       <c r="F105">
         <v>NaN</v>
       </c>
-      <c r="G105">
-        <v>0</v>
+      <c r="G105" t="str">
+        <v>3,664.719</v>
       </c>
       <c r="H105">
         <v>NaN</v>
@@ -3177,8 +3177,8 @@
       <c r="F106">
         <v>NaN</v>
       </c>
-      <c r="G106">
-        <v>0</v>
+      <c r="G106" t="str">
+        <v>2,983.741</v>
       </c>
       <c r="H106">
         <v>NaN</v>
@@ -3203,8 +3203,8 @@
       <c r="F107">
         <v>-51231.25</v>
       </c>
-      <c r="G107">
-        <v>0</v>
+      <c r="G107" t="str">
+        <v>25,763.617</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3229,8 +3229,8 @@
       <c r="F108">
         <v>-51231.25</v>
       </c>
-      <c r="G108">
-        <v>0</v>
+      <c r="G108" t="str">
+        <v>12,096.611</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3255,8 +3255,8 @@
       <c r="F109">
         <v>-51192.9</v>
       </c>
-      <c r="G109">
-        <v>0</v>
+      <c r="G109" t="str">
+        <v>118,269.76</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3281,8 +3281,8 @@
       <c r="F110">
         <v>-51301.8</v>
       </c>
-      <c r="G110">
-        <v>0</v>
+      <c r="G110" t="str">
+        <v>22,564.771</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -3307,8 +3307,8 @@
       <c r="F111">
         <v>-51231.25</v>
       </c>
-      <c r="G111">
-        <v>0</v>
+      <c r="G111" t="str">
+        <v>67,131.357</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -3333,8 +3333,8 @@
       <c r="F112">
         <v>-200000</v>
       </c>
-      <c r="G112">
-        <v>0</v>
+      <c r="G112" t="str">
+        <v>435,569.063</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -3359,8 +3359,8 @@
       <c r="F113">
         <v>-205207.2</v>
       </c>
-      <c r="G113">
-        <v>0</v>
+      <c r="G113" t="str">
+        <v>293,803.227</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -3385,8 +3385,8 @@
       <c r="F114">
         <v>-51267.3</v>
       </c>
-      <c r="G114">
-        <v>0</v>
+      <c r="G114" t="str">
+        <v>15,206.591</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -3411,8 +3411,8 @@
       <c r="F115">
         <v>-46632.40923845259</v>
       </c>
-      <c r="G115">
-        <v>0</v>
+      <c r="G115" t="str">
+        <v>157,137.016</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -3437,8 +3437,8 @@
       <c r="F116">
         <v>-203629.3</v>
       </c>
-      <c r="G116">
-        <v>0</v>
+      <c r="G116" t="str">
+        <v>245,145.271</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -3463,8 +3463,8 @@
       <c r="F117">
         <v>NaN</v>
       </c>
-      <c r="G117">
-        <v>0</v>
+      <c r="G117" t="str">
+        <v>16,134.343</v>
       </c>
       <c r="H117">
         <v>NaN</v>
@@ -3489,8 +3489,8 @@
       <c r="F118">
         <v>-200000</v>
       </c>
-      <c r="G118">
-        <v>0</v>
+      <c r="G118" t="str">
+        <v>355,417.116</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -3515,8 +3515,8 @@
       <c r="F119">
         <v>-200000</v>
       </c>
-      <c r="G119">
-        <v>0</v>
+      <c r="G119" t="str">
+        <v>212,186.081</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -3541,8 +3541,8 @@
       <c r="F120">
         <v>-204603</v>
       </c>
-      <c r="G120">
-        <v>0</v>
+      <c r="G120" t="str">
+        <v>229,364.639</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -3567,8 +3567,8 @@
       <c r="F121">
         <v>NaN</v>
       </c>
-      <c r="G121">
-        <v>0</v>
+      <c r="G121" t="str">
+        <v>10,269.874</v>
       </c>
       <c r="H121">
         <v>NaN</v>
@@ -3593,8 +3593,8 @@
       <c r="F122">
         <v>-51054.5</v>
       </c>
-      <c r="G122">
-        <v>0</v>
+      <c r="G122" t="str">
+        <v>320,992.2</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -3619,8 +3619,8 @@
       <c r="F123">
         <v>-200000</v>
       </c>
-      <c r="G123">
-        <v>0</v>
+      <c r="G123" t="str">
+        <v>427,774.669</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -3645,8 +3645,8 @@
       <c r="F124">
         <v>NaN</v>
       </c>
-      <c r="G124">
-        <v>0</v>
+      <c r="G124" t="str">
+        <v>1,522.772</v>
       </c>
       <c r="H124">
         <v>NaN</v>
@@ -3671,8 +3671,8 @@
       <c r="F125">
         <v>NaN</v>
       </c>
-      <c r="G125">
-        <v>0</v>
+      <c r="G125" t="str">
+        <v>2,402.358</v>
       </c>
       <c r="H125">
         <v>NaN</v>
@@ -3697,8 +3697,8 @@
       <c r="F126">
         <v>NaN</v>
       </c>
-      <c r="G126">
-        <v>0</v>
+      <c r="G126" t="str">
+        <v>2,883.718</v>
       </c>
       <c r="H126">
         <v>NaN</v>
@@ -3723,8 +3723,8 @@
       <c r="F127">
         <v>-204603</v>
       </c>
-      <c r="G127">
-        <v>0</v>
+      <c r="G127" t="str">
+        <v>47,311.36</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -3749,8 +3749,8 @@
       <c r="F128">
         <v>-167116.10899760973</v>
       </c>
-      <c r="G128">
-        <v>0</v>
+      <c r="G128" t="str">
+        <v>25,144.634</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -3775,8 +3775,8 @@
       <c r="F129">
         <v>-173665.72414277255</v>
       </c>
-      <c r="G129">
-        <v>0</v>
+      <c r="G129" t="str">
+        <v>46,378.077</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -3801,8 +3801,8 @@
       <c r="F130">
         <v>-204925</v>
       </c>
-      <c r="G130">
-        <v>0</v>
+      <c r="G130" t="str">
+        <v>46,294.756</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -3827,8 +3827,8 @@
       <c r="F131">
         <v>-205069.2</v>
       </c>
-      <c r="G131">
-        <v>0</v>
+      <c r="G131" t="str">
+        <v>52,918.259</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -3853,8 +3853,8 @@
       <c r="F132">
         <v>-51267.3</v>
       </c>
-      <c r="G132">
-        <v>0</v>
+      <c r="G132" t="str">
+        <v>27,942.266</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -3879,8 +3879,8 @@
       <c r="F133">
         <v>-205069.2</v>
       </c>
-      <c r="G133">
-        <v>0</v>
+      <c r="G133" t="str">
+        <v>37,228.243</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -3905,8 +3905,8 @@
       <c r="F134">
         <v>NaN</v>
       </c>
-      <c r="G134">
-        <v>0</v>
+      <c r="G134" t="str">
+        <v>7,268.261</v>
       </c>
       <c r="H134">
         <v>NaN</v>
@@ -3931,8 +3931,8 @@
       <c r="F135">
         <v>-205069.2</v>
       </c>
-      <c r="G135">
-        <v>0</v>
+      <c r="G135" t="str">
+        <v>51,727.984</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -3957,8 +3957,8 @@
       <c r="F136">
         <v>-204925</v>
       </c>
-      <c r="G136">
-        <v>0</v>
+      <c r="G136" t="str">
+        <v>46,524.377</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -3983,8 +3983,8 @@
       <c r="F137">
         <v>-205069.2</v>
       </c>
-      <c r="G137">
-        <v>0</v>
+      <c r="G137" t="str">
+        <v>46,064.765</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -4009,8 +4009,8 @@
       <c r="F138">
         <v>-204925</v>
       </c>
-      <c r="G138">
-        <v>0</v>
+      <c r="G138" t="str">
+        <v>69,729.941</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -4035,8 +4035,8 @@
       <c r="F139">
         <v>NaN</v>
       </c>
-      <c r="G139">
-        <v>0</v>
+      <c r="G139" t="str">
+        <v>15,578.064</v>
       </c>
       <c r="H139">
         <v>NaN</v>
@@ -4061,8 +4061,8 @@
       <c r="F140">
         <v>-51301.8</v>
       </c>
-      <c r="G140">
-        <v>0</v>
+      <c r="G140" t="str">
+        <v>21,384.797</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -4087,8 +4087,8 @@
       <c r="F141">
         <v>-205069.2</v>
       </c>
-      <c r="G141">
-        <v>0</v>
+      <c r="G141" t="str">
+        <v>30,023.525</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -4113,8 +4113,8 @@
       <c r="F142">
         <v>-180771.6995559807</v>
       </c>
-      <c r="G142">
-        <v>0</v>
+      <c r="G142" t="str">
+        <v>21,085.385</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -4139,8 +4139,8 @@
       <c r="F143">
         <v>-205207.2</v>
       </c>
-      <c r="G143">
-        <v>0</v>
+      <c r="G143" t="str">
+        <v>47,435.954</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -4154,22 +4154,22 @@
         <v>200000</v>
       </c>
       <c r="C144">
-        <v>3031.333333333333</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>5107.616087333333</v>
+        <v>5069.2</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>-189950.94942066667</v>
-      </c>
-      <c r="G144">
-        <v>0</v>
+        <v>-186881.2</v>
+      </c>
+      <c r="G144" t="str">
+        <v>20,062.982</v>
       </c>
       <c r="H144">
-        <v>0.3913351369218451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -4191,8 +4191,8 @@
       <c r="F145">
         <v>NaN</v>
       </c>
-      <c r="G145">
-        <v>0</v>
+      <c r="G145" t="str">
+        <v>9,842.211</v>
       </c>
       <c r="H145">
         <v>NaN</v>
@@ -4217,8 +4217,8 @@
       <c r="F146">
         <v>-188715.09945690873</v>
       </c>
-      <c r="G146">
-        <v>0</v>
+      <c r="G146" t="str">
+        <v>27,886.118</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -4243,8 +4243,8 @@
       <c r="F147">
         <v>-204925</v>
       </c>
-      <c r="G147">
-        <v>0</v>
+      <c r="G147" t="str">
+        <v>28,794.066</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -4269,8 +4269,8 @@
       <c r="F148">
         <v>-205069.2</v>
       </c>
-      <c r="G148">
-        <v>0</v>
+      <c r="G148" t="str">
+        <v>25,214.872</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -4295,8 +4295,8 @@
       <c r="F149">
         <v>-205207.2</v>
       </c>
-      <c r="G149">
-        <v>0</v>
+      <c r="G149" t="str">
+        <v>32,407.935</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -4321,8 +4321,8 @@
       <c r="F150">
         <v>-205069.2</v>
       </c>
-      <c r="G150">
-        <v>0</v>
+      <c r="G150" t="str">
+        <v>17,880.3</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -4347,8 +4347,8 @@
       <c r="F151">
         <v>-204771.6</v>
       </c>
-      <c r="G151">
-        <v>0</v>
+      <c r="G151" t="str">
+        <v>17,803.142</v>
       </c>
       <c r="H151">
         <v>0</v>
